--- a/data/trans_orig/P14A16-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A16-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3F1829C-35DB-4A19-A1C2-789A1374ED27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8260912-692D-4652-A552-8A1D1FA4090B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CE84D401-DF5F-4351-ADA7-A5546B6AA2DA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{83F65730-A923-4D40-A6B5-5B65B469C945}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -75,28 +75,28 @@
     <t>70,97%</t>
   </si>
   <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
   </si>
   <si>
     <t>77,95%</t>
   </si>
   <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
   </si>
   <si>
     <t>74,39%</t>
   </si>
   <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>29,03%</t>
   </si>
   <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
   </si>
   <si>
     <t>22,05%</t>
   </si>
   <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
   </si>
   <si>
     <t>25,61%</t>
   </si>
   <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,10 +138,10 @@
     <t>71,32%</t>
   </si>
   <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
   </si>
   <si>
     <t>74,44%</t>
@@ -150,31 +150,31 @@
     <t>60,6%</t>
   </si>
   <si>
-    <t>84,76%</t>
+    <t>84,88%</t>
   </si>
   <si>
     <t>72,99%</t>
   </si>
   <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
   </si>
   <si>
     <t>28,68%</t>
   </si>
   <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
   </si>
   <si>
     <t>25,56%</t>
   </si>
   <si>
-    <t>15,24%</t>
+    <t>15,12%</t>
   </si>
   <si>
     <t>39,4%</t>
@@ -183,10 +183,10 @@
     <t>27,01%</t>
   </si>
   <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -195,49 +195,55 @@
     <t>71,16%</t>
   </si>
   <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
   </si>
   <si>
     <t>77,0%</t>
   </si>
   <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
   </si>
   <si>
     <t>74,93%</t>
   </si>
   <si>
-    <t>83,43%</t>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
   </si>
   <si>
     <t>28,84%</t>
   </si>
   <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
   </si>
   <si>
     <t>23,0%</t>
   </si>
   <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
   </si>
   <si>
     <t>25,07%</t>
   </si>
   <si>
-    <t>16,57%</t>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -246,55 +252,49 @@
     <t>72,3%</t>
   </si>
   <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
   </si>
   <si>
     <t>80,39%</t>
   </si>
   <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
   </si>
   <si>
     <t>27,7%</t>
   </si>
   <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
   </si>
   <si>
     <t>19,61%</t>
   </si>
   <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -303,532 +303,532 @@
     <t>63,65%</t>
   </si>
   <si>
-    <t>39,11%</t>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por alergias crónicas en 2015 (Tasa respuesta: 6,49%)</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
   </si>
   <si>
     <t>86,03%</t>
   </si>
   <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
   </si>
   <si>
     <t>13,97%</t>
   </si>
   <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
   </si>
   <si>
     <t>34,6%</t>
   </si>
   <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por alergias crónicas en 2015 (Tasa respuesta: 6,49%)</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
   </si>
   <si>
     <t>83,09%</t>
   </si>
   <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
   </si>
   <si>
     <t>16,91%</t>
   </si>
   <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
     <t>49,72%</t>
   </si>
   <si>
     <t>28,22%</t>
   </si>
   <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
   </si>
   <si>
     <t>71,59%</t>
   </si>
   <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
   </si>
   <si>
     <t>73,72%</t>
   </si>
   <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
   </si>
   <si>
     <t>72,92%</t>
   </si>
   <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
   </si>
   <si>
     <t>28,41%</t>
   </si>
   <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
   </si>
   <si>
     <t>26,28%</t>
   </si>
   <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
   </si>
   <si>
     <t>27,08%</t>
   </si>
   <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
   </si>
 </sst>
 </file>
@@ -1240,7 +1240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{661E2DE1-8C15-4653-A99B-52CD4E96077D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26A705A-33F5-46B2-9385-B75B55207EA1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1707,10 +1707,10 @@
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1725,13 +1725,13 @@
         <v>12075</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -1740,13 +1740,13 @@
         <v>17618</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>26</v>
@@ -1755,13 +1755,13 @@
         <v>29692</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1817,7 +1817,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1829,13 +1829,13 @@
         <v>10696</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -1844,13 +1844,13 @@
         <v>31820</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -1859,13 +1859,13 @@
         <v>42516</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1880,13 +1880,13 @@
         <v>4099</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -1895,7 +1895,7 @@
         <v>6275</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>81</v>
@@ -2327,10 +2327,10 @@
         <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2345,13 +2345,13 @@
         <v>48651</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>55</v>
@@ -2360,13 +2360,13 @@
         <v>57833</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>101</v>
@@ -2375,13 +2375,13 @@
         <v>106484</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>21</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2437,7 +2437,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2459,7 +2459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5F0783-A335-45A4-A125-A8AFC04F0289}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{627578E8-24A4-4C86-AB14-49D4FB7A5458}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2476,7 +2476,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2583,13 +2583,13 @@
         <v>27020</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H4" s="7">
         <v>25</v>
@@ -2598,13 +2598,13 @@
         <v>24670</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M4" s="7">
         <v>51</v>
@@ -2613,13 +2613,13 @@
         <v>51690</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,13 +2634,13 @@
         <v>16133</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -2649,13 +2649,13 @@
         <v>12844</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M5" s="7">
         <v>29</v>
@@ -2664,13 +2664,13 @@
         <v>28977</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,13 +2738,13 @@
         <v>28383</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -2753,13 +2753,13 @@
         <v>35583</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M7" s="7">
         <v>63</v>
@@ -2768,13 +2768,13 @@
         <v>63967</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2789,13 +2789,13 @@
         <v>9810</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H8" s="7">
         <v>20</v>
@@ -2804,13 +2804,13 @@
         <v>19467</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M8" s="7">
         <v>29</v>
@@ -2819,13 +2819,13 @@
         <v>29277</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,13 +2893,13 @@
         <v>22246</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H10" s="7">
         <v>50</v>
@@ -2908,13 +2908,13 @@
         <v>50609</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>70</v>
@@ -2923,13 +2923,13 @@
         <v>72855</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,13 +2944,13 @@
         <v>9638</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H11" s="7">
         <v>14</v>
@@ -2959,10 +2959,10 @@
         <v>15176</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>192</v>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3358,13 +3358,13 @@
         <v>10309</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -3373,13 +3373,13 @@
         <v>22968</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M19" s="7">
         <v>32</v>
@@ -3409,13 +3409,13 @@
         <v>2649</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -3424,10 +3424,10 @@
         <v>10435</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>242</v>
@@ -3656,7 +3656,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A16-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A16-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8260912-692D-4652-A552-8A1D1FA4090B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BC856F4-535A-4BF8-8D82-232643927A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{83F65730-A923-4D40-A6B5-5B65B469C945}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E950CA91-CF69-444E-A1D0-31187ABA0A6B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="270">
   <si>
     <t>Población que recibe medicación o terapia por alergias crónicas en 2012 (Tasa respuesta: 6,22%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>70,97%</t>
   </si>
   <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
   </si>
   <si>
     <t>77,95%</t>
   </si>
   <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
   </si>
   <si>
     <t>74,39%</t>
   </si>
   <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>29,03%</t>
   </si>
   <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
   </si>
   <si>
     <t>22,05%</t>
   </si>
   <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
   </si>
   <si>
     <t>25,61%</t>
   </si>
   <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,697 +138,715 @@
     <t>71,32%</t>
   </si>
   <si>
-    <t>57,5%</t>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
   </si>
   <si>
     <t>83,53%</t>
   </si>
   <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
   </si>
   <si>
     <t>16,47%</t>
   </si>
   <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por alergias crónicas en 2016 (Tasa respuesta: 6,49%)</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
   </si>
   <si>
     <t>65,32%</t>
   </si>
   <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
   </si>
   <si>
     <t>34,68%</t>
   </si>
   <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por alergias crónicas en 2015 (Tasa respuesta: 6,49%)</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
   </si>
   <si>
     <t>79,56%</t>
   </si>
   <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
   </si>
   <si>
     <t>20,44%</t>
   </si>
   <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
   </si>
   <si>
     <t>31,24%</t>
   </si>
   <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
   </si>
   <si>
     <t>28,22%</t>
   </si>
   <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
   </si>
   <si>
     <t>71,59%</t>
   </si>
   <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
   </si>
   <si>
     <t>73,72%</t>
   </si>
   <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
   </si>
   <si>
     <t>72,92%</t>
   </si>
   <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
   </si>
   <si>
     <t>28,41%</t>
   </si>
   <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
   </si>
   <si>
     <t>26,28%</t>
   </si>
   <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
   </si>
   <si>
     <t>27,08%</t>
   </si>
   <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
   </si>
 </sst>
 </file>
@@ -1240,7 +1258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26A705A-33F5-46B2-9385-B75B55207EA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018DA56E-F18C-431D-AC6A-0537DB6EFE9D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1844,13 +1862,13 @@
         <v>31820</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -1859,13 +1877,13 @@
         <v>42516</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1880,13 +1898,13 @@
         <v>4099</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -1895,13 +1913,13 @@
         <v>6275</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -1910,13 +1928,13 @@
         <v>10374</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1972,7 +1990,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1984,13 +2002,13 @@
         <v>9500</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -1999,13 +2017,13 @@
         <v>15387</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -2014,13 +2032,13 @@
         <v>24887</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2035,13 +2053,13 @@
         <v>5425</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -2050,13 +2068,13 @@
         <v>4266</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -2065,13 +2083,13 @@
         <v>9691</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2127,7 +2145,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2139,13 +2157,13 @@
         <v>17938</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -2154,13 +2172,13 @@
         <v>27527</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>41</v>
@@ -2169,13 +2187,13 @@
         <v>45465</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2190,13 +2208,13 @@
         <v>3060</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -2205,13 +2223,13 @@
         <v>8527</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -2220,13 +2238,13 @@
         <v>11587</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2294,13 +2312,13 @@
         <v>127120</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>186</v>
@@ -2309,13 +2327,13 @@
         <v>200403</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>304</v>
@@ -2324,13 +2342,13 @@
         <v>327523</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2345,13 +2363,13 @@
         <v>48651</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>55</v>
@@ -2360,13 +2378,13 @@
         <v>57833</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>101</v>
@@ -2375,13 +2393,13 @@
         <v>106484</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2437,7 +2455,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2459,7 +2477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{627578E8-24A4-4C86-AB14-49D4FB7A5458}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4FAB23-BB95-462D-99BD-5401C1351FC4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2476,7 +2494,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2583,13 +2601,13 @@
         <v>27020</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>25</v>
@@ -2598,13 +2616,13 @@
         <v>24670</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>51</v>
@@ -2613,13 +2631,13 @@
         <v>51690</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,13 +2652,13 @@
         <v>16133</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -2649,13 +2667,13 @@
         <v>12844</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>29</v>
@@ -2664,13 +2682,13 @@
         <v>28977</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,13 +2756,13 @@
         <v>28383</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -2753,13 +2771,13 @@
         <v>35583</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>63</v>
@@ -2768,13 +2786,13 @@
         <v>63967</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2789,13 +2807,13 @@
         <v>9810</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>20</v>
@@ -2804,13 +2822,13 @@
         <v>19467</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>29</v>
@@ -2819,13 +2837,13 @@
         <v>29277</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,13 +2911,13 @@
         <v>22246</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>50</v>
@@ -2908,13 +2926,13 @@
         <v>50609</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>70</v>
@@ -2923,13 +2941,13 @@
         <v>72855</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,13 +2962,13 @@
         <v>9638</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>14</v>
@@ -2959,13 +2977,13 @@
         <v>15176</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>23</v>
@@ -2974,13 +2992,13 @@
         <v>24814</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3048,13 +3066,13 @@
         <v>14938</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -3063,13 +3081,13 @@
         <v>40798</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>50</v>
@@ -3078,13 +3096,13 @@
         <v>55736</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3099,13 +3117,13 @@
         <v>7212</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -3114,13 +3132,13 @@
         <v>9317</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>16</v>
@@ -3129,13 +3147,13 @@
         <v>16529</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,7 +3209,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3203,13 +3221,13 @@
         <v>16992</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -3218,13 +3236,13 @@
         <v>32943</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M16" s="7">
         <v>43</v>
@@ -3233,13 +3251,13 @@
         <v>49935</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,13 +3272,13 @@
         <v>2139</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -3269,13 +3287,13 @@
         <v>6761</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -3284,13 +3302,13 @@
         <v>8900</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,7 +3364,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3358,13 +3376,13 @@
         <v>10309</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>149</v>
+        <v>234</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -3373,13 +3391,13 @@
         <v>22968</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M19" s="7">
         <v>32</v>
@@ -3388,13 +3406,13 @@
         <v>33277</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,13 +3427,13 @@
         <v>2649</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>157</v>
+        <v>243</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -3424,13 +3442,13 @@
         <v>10435</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -3439,13 +3457,13 @@
         <v>13084</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,13 +3531,13 @@
         <v>119888</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="H22" s="7">
         <v>195</v>
@@ -3528,13 +3546,13 @@
         <v>207572</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="M22" s="7">
         <v>309</v>
@@ -3543,13 +3561,13 @@
         <v>327460</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3564,13 +3582,13 @@
         <v>47581</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="H23" s="7">
         <v>71</v>
@@ -3579,13 +3597,13 @@
         <v>73999</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="M23" s="7">
         <v>117</v>
@@ -3594,13 +3612,13 @@
         <v>121580</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,7 +3674,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
